--- a/results/I3_N5_M2_T45_C100_DepLowerLeft_s2_P5_res.xlsx
+++ b/results/I3_N5_M2_T45_C100_DepLowerLeft_s2_P5_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1603.485073138413</v>
+        <v>2278.244746789456</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.006999969482421875</v>
+        <v>0.002000093460083008</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>49.30507409208358</v>
+        <v>27.21363927694955</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>21.08821434534688</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>6.119321857853205</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1180.94999904633</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>373.23</v>
+        <v>386</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -580,6 +580,61 @@
         <is>
           <t>alpha</t>
         </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>4</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>4</v>
+      </c>
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -634,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -656,7 +711,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -667,7 +722,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -678,7 +733,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -689,7 +744,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -736,7 +791,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -747,7 +802,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -769,7 +824,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -852,7 +907,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>14.33516919445621</v>
+        <v>29.33516919445621</v>
       </c>
     </row>
     <row r="4">
@@ -860,7 +915,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5">
@@ -868,7 +923,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>4.378337369020976</v>
+        <v>3.132299474826759</v>
       </c>
     </row>
     <row r="6">
@@ -876,7 +931,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>37.5000066666637</v>
+        <v>17.99312545677591</v>
       </c>
     </row>
     <row r="7">
@@ -884,7 +939,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>30</v>
+        <v>31.95858503259002</v>
       </c>
     </row>
     <row r="8">
@@ -892,7 +947,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>43.61932852451691</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9">
@@ -914,7 +969,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -942,6 +997,286 @@
         <is>
           <t>y</t>
         </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" t="n">
+        <v>2</v>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>2</v>
+      </c>
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>2</v>
+      </c>
+      <c r="B8" t="n">
+        <v>5</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>2</v>
+      </c>
+      <c r="B9" t="n">
+        <v>5</v>
+      </c>
+      <c r="C9" t="n">
+        <v>3</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>2</v>
+      </c>
+      <c r="B10" t="n">
+        <v>5</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>2</v>
+      </c>
+      <c r="B11" t="n">
+        <v>5</v>
+      </c>
+      <c r="C11" t="n">
+        <v>5</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>4</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>4</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>4</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" t="n">
+        <v>3</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>4</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" t="n">
+        <v>4</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>4</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" t="n">
+        <v>5</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>5</v>
+      </c>
+      <c r="B17" t="n">
+        <v>6</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>5</v>
+      </c>
+      <c r="B18" t="n">
+        <v>6</v>
+      </c>
+      <c r="C18" t="n">
+        <v>2</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>5</v>
+      </c>
+      <c r="B19" t="n">
+        <v>6</v>
+      </c>
+      <c r="C19" t="n">
+        <v>3</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>5</v>
+      </c>
+      <c r="B20" t="n">
+        <v>6</v>
+      </c>
+      <c r="C20" t="n">
+        <v>4</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>5</v>
+      </c>
+      <c r="B21" t="n">
+        <v>6</v>
+      </c>
+      <c r="C21" t="n">
+        <v>5</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1043,7 +1378,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>66.41499999999921</v>
+        <v>165</v>
       </c>
     </row>
     <row r="8">
@@ -1054,7 +1389,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>60.47499999999921</v>
+        <v>167</v>
       </c>
     </row>
     <row r="9">
@@ -1065,7 +1400,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>58.02999999999921</v>
+        <v>157</v>
       </c>
     </row>
     <row r="10">
@@ -1076,7 +1411,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>66.8799999999992</v>
+        <v>163</v>
       </c>
     </row>
     <row r="11">
@@ -1087,7 +1422,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>71.52999999999921</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12">
@@ -1098,7 +1433,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>166.7349999999998</v>
+        <v>223</v>
       </c>
     </row>
     <row r="13">
@@ -1109,7 +1444,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>158.9649999999998</v>
+        <v>229</v>
       </c>
     </row>
     <row r="14">
@@ -1120,7 +1455,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>156.6949999999998</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15">
@@ -1131,7 +1466,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>163.9199999999998</v>
+        <v>229</v>
       </c>
     </row>
     <row r="16">
@@ -1142,7 +1477,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>167.5099999999998</v>
+        <v>215</v>
       </c>
     </row>
     <row r="17">
@@ -1153,7 +1488,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>32.91499999999935</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18">
@@ -1164,7 +1499,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>33.31999999999935</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19">
@@ -1175,7 +1510,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>26.77999999999935</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20">
@@ -1186,7 +1521,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>36.18499999999935</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21">
@@ -1197,7 +1532,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>35.9</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22">
@@ -1208,7 +1543,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>158.4050000000011</v>
+        <v>115</v>
       </c>
     </row>
     <row r="23">
@@ -1219,7 +1554,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>156.8400000000011</v>
+        <v>113</v>
       </c>
     </row>
     <row r="24">
@@ -1230,7 +1565,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>147.0950000000011</v>
+        <v>113</v>
       </c>
     </row>
     <row r="25">
@@ -1241,7 +1576,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>155.8350000000011</v>
+        <v>112</v>
       </c>
     </row>
     <row r="26">
@@ -1252,7 +1587,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>158.4750000000011</v>
+        <v>111</v>
       </c>
     </row>
     <row r="27">
@@ -1263,7 +1598,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>52.23500000000072</v>
+        <v>289</v>
       </c>
     </row>
     <row r="28">
@@ -1274,7 +1609,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>44.35</v>
+        <v>298</v>
       </c>
     </row>
     <row r="29">
@@ -1285,7 +1620,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>44.52500000000073</v>
+        <v>282</v>
       </c>
     </row>
     <row r="30">
@@ -1296,7 +1631,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>45.78500000000072</v>
+        <v>289</v>
       </c>
     </row>
     <row r="31">
@@ -1307,7 +1642,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>50.8</v>
+        <v>282</v>
       </c>
     </row>
     <row r="32">
@@ -1318,7 +1653,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>158.4050000000011</v>
+        <v>289</v>
       </c>
     </row>
     <row r="33">
@@ -1329,7 +1664,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>156.8400000000011</v>
+        <v>298</v>
       </c>
     </row>
     <row r="34">
@@ -1340,7 +1675,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>147.0950000000011</v>
+        <v>282</v>
       </c>
     </row>
     <row r="35">
@@ -1351,7 +1686,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>155.8350000000011</v>
+        <v>289</v>
       </c>
     </row>
     <row r="36">
@@ -1362,7 +1697,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>158.4750000000011</v>
+        <v>282</v>
       </c>
     </row>
     <row r="37">
@@ -1373,7 +1708,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>166.7349999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1384,7 +1719,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>158.9649999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1395,7 +1730,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>156.6949999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1406,7 +1741,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>163.9199999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1417,7 +1752,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>167.5099999999998</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1464,7 +1799,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>58.40499997138977</v>
+        <v>189</v>
       </c>
     </row>
     <row r="3">
@@ -1475,7 +1810,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>56.83999991416931</v>
+        <v>198</v>
       </c>
     </row>
     <row r="4">
@@ -1486,7 +1821,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>47.09500000000111</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5">
@@ -1497,7 +1832,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>55.83500000000109</v>
+        <v>189</v>
       </c>
     </row>
     <row r="6">
@@ -1508,7 +1843,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>58.47499990463257</v>
+        <v>182</v>
       </c>
     </row>
     <row r="7">
@@ -1519,7 +1854,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>66.73499989509583</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1530,7 +1865,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>58.96499991416931</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1541,7 +1876,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>56.6949999332428</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1552,7 +1887,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>63.91999999999982</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1563,7 +1898,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>67.50999999046326</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1610,7 +1945,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>10.155</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1621,7 +1956,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>9.879999999999999</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1632,7 +1967,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>10.045</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -1643,7 +1978,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>8.815</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -1654,7 +1989,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>8.24</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -1665,7 +2000,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>10.945</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -1676,7 +2011,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>17.125</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -1687,7 +2022,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>18.02</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10">
@@ -1698,7 +2033,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>19.835</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -1709,7 +2044,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>19.94</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12">
@@ -1720,7 +2055,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>8.255000000000001</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13">
@@ -1731,7 +2066,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>13.395</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14">
@@ -1742,7 +2077,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>11.08</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15">
@@ -1753,7 +2088,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>11.465</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16">
@@ -1764,7 +2099,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>9.42</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17">
@@ -1775,7 +2110,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18">
@@ -1786,7 +2121,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19">
@@ -1797,7 +2132,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20">
@@ -1808,7 +2143,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21">
@@ -1819,7 +2154,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22">
@@ -1888,7 +2223,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1915,7 +2250,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -1926,7 +2261,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -1937,7 +2272,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -1948,7 +2283,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -1959,7 +2294,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
@@ -1970,7 +2305,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
@@ -1981,7 +2316,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B8" t="n">
         <v>2</v>
@@ -1992,7 +2327,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B9" t="n">
         <v>3</v>
@@ -2003,7 +2338,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B10" t="n">
         <v>4</v>
@@ -2014,12 +2349,122 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B11" t="n">
         <v>5</v>
       </c>
       <c r="C11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>4</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>4</v>
+      </c>
+      <c r="B13" t="n">
+        <v>2</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>4</v>
+      </c>
+      <c r="B14" t="n">
+        <v>3</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>4</v>
+      </c>
+      <c r="B15" t="n">
+        <v>4</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>4</v>
+      </c>
+      <c r="B16" t="n">
+        <v>5</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>5</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>5</v>
+      </c>
+      <c r="B18" t="n">
+        <v>2</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>5</v>
+      </c>
+      <c r="B19" t="n">
+        <v>3</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>5</v>
+      </c>
+      <c r="B20" t="n">
+        <v>4</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>5</v>
+      </c>
+      <c r="B21" t="n">
+        <v>5</v>
+      </c>
+      <c r="C21" t="n">
         <v>1</v>
       </c>
     </row>
